--- a/eds/spanish_latAm/edshvs-p_esla_translation_process.xlsx
+++ b/eds/spanish_latAm/edshvs-p_esla_translation_process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jalexand/github/instruments/eds/spanish_latAm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E717A69-1769-234B-929C-CFDD97412A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5D1D50-B23D-9545-8312-D8BDE78E9E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="500" windowWidth="28780" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="172">
   <si>
     <t>measure</t>
   </si>
@@ -509,29 +509,35 @@
     <t>BACK: Does the Spanish imply "you"? -- no, back translator confirmed should be "their"</t>
   </si>
   <si>
-    <t>BACK: Because of the use of the present perfect ("has received"), the wording sounds specific versus general; is this intentional? -- yes, the way it's written in the acutal spanish implies past action that has specifically happened</t>
+    <t>BACK: Would "applies" match the Spanish? --confirmed</t>
+  </si>
+  <si>
+    <t>BACK: Missing "Reporte Para Los Padres". --from back translator: "Parent Report"</t>
+  </si>
+  <si>
+    <t>FORWARD: Does the Spanish imply "you"? --no, back translator confirmed ok as is</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>BACK: Would "everyday" also match the Spanish? --confirmed</t>
+  </si>
+  <si>
+    <t>El tono de piel de su hijo/a</t>
+  </si>
+  <si>
+    <t>Su hijo/a es amenazado o acosado.</t>
   </si>
   <si>
     <t>FORWARD: Missing "daughter".
-BACK: Because of the use of the present perfect ("has been"), the wording sounds specific versus general; is this intentional? -- yes, the way it's written in the acutal spanish implies past action that has specifically happened</t>
-  </si>
-  <si>
-    <t>BACK: Would "applies" match the Spanish? --confirmed</t>
-  </si>
-  <si>
-    <t>BACK: Missing "Reporte Para Los Padres". --from back translator: "Parent Report"</t>
-  </si>
-  <si>
-    <t>FORWARD: Does the Spanish imply "you"? --no, back translator confirmed ok as is</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>BACK: Would "everyday" also match the Spanish? --confirmed</t>
-  </si>
-  <si>
-    <t>El tono de piel de su hijo/a</t>
+BACK: Because of the use of the present perfect ("has been"), the wording sounds specific versus general; is this intentional? -- yes, the way it's written in the acutal spanish implies past action that has specifically happened; decision that Spanish is accurate as is</t>
+  </si>
+  <si>
+    <t>BACK: Because of the use of the present perfect ("has received"), the wording sounds specific versus general; is this intentional? -- yes, the way it's written in the acutal spanish implies past action that has specifically happened --decision that Spanish is accurate as is</t>
+  </si>
+  <si>
+    <t>Si usted respondió “Algunas veces al año” o con más frecuencia a al menos una pregunta: ¿Cual crees que es la razón principal para estas experiencias?</t>
   </si>
 </sst>
 </file>
@@ -674,7 +680,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -857,12 +863,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,7 +1027,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1036,9 +1036,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1401,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1463,8 +1460,8 @@
       <c r="F2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>168</v>
+      <c r="G2" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -1630,7 +1627,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1649,8 +1646,8 @@
       <c r="F11" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>162</v>
+      <c r="G11" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -1693,7 +1690,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1712,8 +1709,11 @@
       <c r="F14" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>163</v>
+      <c r="G14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="153" x14ac:dyDescent="0.2">
@@ -1738,6 +1738,9 @@
       <c r="G15" s="4" t="s">
         <v>156</v>
       </c>
+      <c r="H15" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1759,7 +1762,7 @@
         <v>135</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1982,7 +1985,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -2001,11 +2004,11 @@
       <c r="F28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="1" t="s">
         <v>158</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2044,7 +2047,7 @@
         <v>148</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -2130,7 +2133,7 @@
         <v>159</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2165,7 +2168,7 @@
         <v>152</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="51" x14ac:dyDescent="0.2">
